--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378998.9436631817</v>
+        <v>376293.3082743286</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179439</v>
+        <v>19997574.02179438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891439</v>
+        <v>4902171.467891437</v>
       </c>
     </row>
     <row r="11">
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="S2" t="n">
+      <c r="X2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>34.86547882798917</v>
       </c>
       <c r="Y2" t="n">
         <v>39.58387696184059</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>39.58387696184059</v>
@@ -756,34 +756,34 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I3" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="R4" t="n">
         <v>39.58387696184059</v>
@@ -868,7 +868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="T4" t="n">
-        <v>7.256111626157765</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -944,22 +944,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T5" t="n">
-        <v>12.92549025883184</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="H6" t="n">
         <v>39.58387696184059</v>
@@ -996,7 +996,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1093,31 +1093,31 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G8" t="n">
         <v>39.58387696184059</v>
@@ -1154,7 +1154,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="T9" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1379,49 +1379,49 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I11" t="n">
+      <c r="S11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>39.58387696184059</v>
@@ -1467,34 +1467,34 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I12" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1604,55 +1604,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C14" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.92549025883184</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="E14" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1689,25 +1689,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="18">
@@ -1935,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I18" t="n">
         <v>44.13217237922859</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>143.1689537721622</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2236,58 +2236,58 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,73 +2315,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>3.265316057196634</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2403,22 +2403,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>27.96547247954966</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.36433281451593</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,61 +2482,61 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,73 +2552,73 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>16.53524424398009</v>
       </c>
       <c r="D27" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2722,55 +2722,55 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,17 +2792,17 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>50.17467989273284</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2928,7 +2928,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>131.1096832932227</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>131.8562746194806</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>56.91690033700343</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3193,61 +3193,61 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>21.18375537072436</v>
-      </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,25 +3506,25 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>52.42556848774763</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,31 +3579,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>137.305196417407</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>236.4659934602711</v>
       </c>
       <c r="C41" t="n">
-        <v>48.41942988411211</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="Y41" t="n">
         <v>236.4659934602711</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>108.6884612335434</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.12902139221814</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>236.4659934602711</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,70 +3974,70 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
+      <c r="W44" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="X45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="46">
@@ -4132,17 +4132,17 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
         <v>9.977552361264268</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4331,19 +4331,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="M2" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="N2" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O2" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N2" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="O2" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
@@ -4352,22 +4352,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U2" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V2" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W2" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X2" t="n">
         <v>43.15042425981653</v>
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
         <v>3.166710156947247</v>
@@ -4416,43 +4416,43 @@
         <v>3.166710156947247</v>
       </c>
       <c r="M3" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="N3" t="n">
         <v>40.77139327069581</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="P3" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="4">
@@ -4504,16 +4504,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="S4" t="n">
-        <v>10.49611583993489</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="T4" t="n">
         <v>3.166710156947247</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.22041350689989</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C5" t="n">
-        <v>55.22041350689989</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="D5" t="n">
-        <v>55.22041350689989</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="E5" t="n">
-        <v>55.22041350689989</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="F5" t="n">
-        <v>55.22041350689989</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="G5" t="n">
-        <v>55.22041350689989</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="I5" t="n">
         <v>15.2366994040306</v>
@@ -4568,19 +4568,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M5" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
@@ -4592,25 +4592,25 @@
         <v>108.260178376266</v>
       </c>
       <c r="S5" t="n">
+        <v>108.260178376266</v>
+      </c>
+      <c r="T5" t="n">
+        <v>108.260178376266</v>
+      </c>
+      <c r="U5" t="n">
+        <v>108.260178376266</v>
+      </c>
+      <c r="V5" t="n">
+        <v>108.260178376266</v>
+      </c>
+      <c r="W5" t="n">
+        <v>108.260178376266</v>
+      </c>
+      <c r="X5" t="n">
         <v>68.2764642733967</v>
       </c>
-      <c r="T5" t="n">
-        <v>55.22041350689989</v>
-      </c>
-      <c r="U5" t="n">
-        <v>55.22041350689989</v>
-      </c>
-      <c r="V5" t="n">
-        <v>55.22041350689989</v>
-      </c>
-      <c r="W5" t="n">
-        <v>55.22041350689989</v>
-      </c>
-      <c r="X5" t="n">
-        <v>55.22041350689989</v>
-      </c>
       <c r="Y5" t="n">
-        <v>55.22041350689989</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G6" t="n">
-        <v>83.13413836268582</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H6" t="n">
-        <v>43.15042425981653</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1474696551402</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
         <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q6" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="7">
@@ -4741,28 +4741,28 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.21247408113457</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R7" t="n">
-        <v>53.22875997826529</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S7" t="n">
-        <v>53.22875997826529</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T7" t="n">
-        <v>43.15042425981653</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V7" t="n">
-        <v>3.166710156947247</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="W7" t="n">
-        <v>3.166710156947247</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="X7" t="n">
         <v>3.166710156947247</v>
@@ -4790,16 +4790,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P9" t="n">
         <v>158.3355078473624</v>
@@ -4905,28 +4905,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T9" t="n">
-        <v>43.90455691260225</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F11" t="n">
-        <v>135.1878417126385</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G11" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
         <v>42.35474834916943</v>
@@ -5051,40 +5051,40 @@
         <v>79.95943146291799</v>
       </c>
       <c r="N11" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O11" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O11" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8719851183408</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G12" t="n">
-        <v>83.88827101547153</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
         <v>3.166710156947247</v>
@@ -5124,46 +5124,46 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>120.7308247336138</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O12" t="n">
-        <v>158.3355078473624</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q12" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="13">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C14" t="n">
-        <v>123.1178524655551</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="D14" t="n">
-        <v>83.13413836268582</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="E14" t="n">
-        <v>43.15042425981653</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="F14" t="n">
-        <v>43.15042425981653</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J14" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O14" t="n">
         <v>158.3355078473624</v>
@@ -5297,31 +5297,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
     </row>
     <row r="15">
@@ -5337,22 +5337,22 @@
         <v>118.3517937444931</v>
       </c>
       <c r="D15" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E15" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F15" t="n">
-        <v>118.3517937444931</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G15" t="n">
-        <v>83.88827101547153</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
         <v>3.166710156947247</v>
@@ -5367,10 +5367,10 @@
         <v>42.35474834916943</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P15" t="n">
         <v>158.3355078473624</v>
@@ -5516,49 +5516,49 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8591222504766</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S17" t="n">
-        <v>77.28117035226589</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T17" t="n">
-        <v>32.70321845405519</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G18" t="n">
-        <v>48.10852568854899</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H18" t="n">
         <v>48.10852568854899</v>
@@ -5595,49 +5595,49 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N18" t="n">
-        <v>45.45613755060546</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.10852568854899</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
         <v>3.530573790338288</v>
@@ -5701,22 +5701,22 @@
         <v>93.48491238239833</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>255.9366034337592</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>342.668582052591</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>342.668582052591</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>342.668582052591</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>342.668582052591</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>342.668582052591</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="22">
@@ -5935,25 +5935,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>272.1352367728036</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C24" t="n">
-        <v>272.1352367728036</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="D24" t="n">
-        <v>272.1352367728036</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="E24" t="n">
-        <v>272.1352367728036</v>
+        <v>194.0636530828729</v>
       </c>
       <c r="F24" t="n">
-        <v>272.1352367728036</v>
+        <v>47.52909510975783</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>47.52909510975783</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6072,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>951.5679304454686</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>951.5679304454686</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>951.5679304454686</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>723.3443121818576</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>723.3443121818576</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>479.8955355377576</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>479.8955355377576</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y24" t="n">
-        <v>272.1352367728036</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>136.7812428759814</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="C27" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6315,10 +6315,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
+        <v>613.2059550252818</v>
+      </c>
+      <c r="O27" t="n">
         <v>851.8101010141643</v>
-      </c>
-      <c r="O27" t="n">
-        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>512.7568786610034</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.9965798960495</v>
+        <v>35.98341002332393</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6440,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6497,7 +6497,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
         <v>749.627473042513</v>
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>314.750110744579</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>314.750110744579</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>913.3756606694919</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>711.189066028258</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>482.9654477646471</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>482.9654477646471</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="W30" t="n">
-        <v>482.9654477646471</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X30" t="n">
-        <v>482.9654477646471</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>482.9654477646471</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>906.5653369884105</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>906.5653369884105</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>678.3417187247995</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>152.4692992915062</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6962,22 +6962,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
         <v>19.28114311021272</v>
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7023,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7132,13 +7132,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C38" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D38" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E38" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F38" t="n">
-        <v>72.23626279480629</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G38" t="n">
-        <v>72.23626279480629</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X38" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y38" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>795.8418184905681</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C39" t="n">
-        <v>657.1497008972277</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D39" t="n">
-        <v>508.2152912359765</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E39" t="n">
-        <v>508.2152912359765</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F39" t="n">
-        <v>361.6807332628614</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X39" t="n">
-        <v>964.0571555106362</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y39" t="n">
-        <v>964.0571555106362</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67.82579451127836</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
         <v>18.91727947682168</v>
@@ -7418,7 +7418,7 @@
         <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
         <v>707.0089684063852</v>
@@ -7430,31 +7430,31 @@
         <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>784.3894110575544</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>784.3894110575544</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T41" t="n">
-        <v>784.3894110575544</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U41" t="n">
-        <v>784.3894110575544</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V41" t="n">
-        <v>784.3894110575544</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W41" t="n">
-        <v>784.3894110575544</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="X41" t="n">
-        <v>545.5348722087957</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="Y41" t="n">
-        <v>306.680333360037</v>
+        <v>496.626357174339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>471.8573267605827</v>
+        <v>229.8642697601892</v>
       </c>
       <c r="C42" t="n">
-        <v>471.8573267605827</v>
+        <v>55.41124047906223</v>
       </c>
       <c r="D42" t="n">
-        <v>471.8573267605827</v>
+        <v>55.41124047906223</v>
       </c>
       <c r="E42" t="n">
-        <v>471.8573267605827</v>
+        <v>55.41124047906223</v>
       </c>
       <c r="F42" t="n">
-        <v>362.0710022822561</v>
+        <v>55.41124047906223</v>
       </c>
       <c r="G42" t="n">
-        <v>223.3401768648716</v>
+        <v>55.41124047906223</v>
       </c>
       <c r="H42" t="n">
-        <v>109.9710412724509</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
         <v>18.91727947682168</v>
@@ -7494,16 +7494,16 @@
         <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>243.5599732640792</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>477.6613067897475</v>
+        <v>608.3392789286765</v>
       </c>
       <c r="N42" t="n">
-        <v>711.7626403154159</v>
+        <v>763.2204962277333</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>763.2204962277333</v>
       </c>
       <c r="P42" t="n">
         <v>945.8639738410842</v>
@@ -7512,28 +7512,28 @@
         <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="V42" t="n">
-        <v>710.7118656093414</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="W42" t="n">
-        <v>471.8573267605827</v>
+        <v>605.8399055452112</v>
       </c>
       <c r="X42" t="n">
-        <v>471.8573267605827</v>
+        <v>605.8399055452112</v>
       </c>
       <c r="Y42" t="n">
-        <v>471.8573267605827</v>
+        <v>398.0796067802573</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C44" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D44" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E44" t="n">
         <v>3.166710156947247</v>
@@ -7649,19 +7649,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L44" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M44" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
         <v>158.3355078473624</v>
@@ -7670,28 +7670,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T44" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U44" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V44" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W44" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X44" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C45" t="n">
         <v>3.166710156947247</v>
@@ -7734,13 +7734,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="N45" t="n">
         <v>40.77139327069581</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>79.95943146291799</v>
-      </c>
-      <c r="O45" t="n">
-        <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
         <v>119.1474696551402</v>
@@ -7758,19 +7758,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W45" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X45" t="n">
-        <v>38.38436553875449</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E46" t="n">
         <v>3.166710156947247</v>
@@ -7825,7 +7825,7 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R46" t="n">
         <v>93.21247408113457</v>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
@@ -7994,7 +7994,7 @@
         <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,10 +8064,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
         <v>182.180121406285</v>
@@ -8076,7 +8076,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>180.1185623197441</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>175.8259673720848</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
         <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8547,7 +8547,7 @@
         <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
         <v>268.3307616249986</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8772,22 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9015,13 +9015,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O15" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>262.4389053482807</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
         <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9720,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9732,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9963,13 +9963,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,10 +10203,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -10443,10 +10443,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>419.3375122542458</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>238.8423936479753</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>287.7873861227846</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L44" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,16 +11382,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O45" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
         <v>179.5656510478621</v>
@@ -22592,13 +22592,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>188.2303707361422</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,10 +22607,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X2" t="n">
-        <v>334.8656218504798</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y2" t="n">
         <v>346.654061694213</v>
@@ -22635,7 +22635,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>97.75964020137005</v>
@@ -22644,10 +22644,10 @@
         <v>72.65156727465587</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>54.53115402342591</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22744,10 +22744,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>76.18449089043011</v>
       </c>
       <c r="R4" t="n">
         <v>137.7095144153289</v>
@@ -22756,7 +22756,7 @@
         <v>184.4327210751317</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6894778021237</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22802,7 +22802,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>197.5503993115741</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,10 +22832,10 @@
         <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>210.1703593052995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22872,10 +22872,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>103.2246296614793</v>
       </c>
       <c r="H6" t="n">
         <v>72.65156727465587</v>
@@ -22884,7 +22884,7 @@
         <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22981,31 +22981,31 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T7" t="n">
-        <v>217.9680370670172</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>218.4535437628794</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G8" t="n">
         <v>375.7188605532945</v>
@@ -23042,7 +23042,7 @@
         <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23118,10 +23118,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S9" t="n">
         <v>132.0992941419972</v>
       </c>
       <c r="T9" t="n">
-        <v>166.0458411930903</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>375.7188605532945</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>198.221069950687</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23346,7 +23346,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>97.75964020137005</v>
@@ -23355,10 +23355,10 @@
         <v>72.65156727465587</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>54.53115402342591</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23492,31 +23492,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C14" t="n">
-        <v>330.4074129430184</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D14" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>197.5503993115741</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,10 +23537,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23577,25 +23577,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G15" t="n">
-        <v>103.2246296614793</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>54.53115402342591</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T17" t="n">
         <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>222.4647346907568</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="18">
@@ -23823,10 +23823,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I18" t="n">
         <v>45.26446047218649</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23941,7 +23941,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>148.4449359431696</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,10 +24048,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24060,7 +24060,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>82.77242830881264</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X23" t="n">
-        <v>366.4657846212724</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24291,22 +24291,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>84.2699717569468</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>87.79350133812721</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,13 +24452,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>156.1732547443357</v>
       </c>
       <c r="D27" t="n">
-        <v>31.11996679652773</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,16 +24680,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24737,10 +24737,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>121.508491211105</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24816,7 +24816,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>101.6909038562026</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24917,19 +24917,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,10 +24962,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,7 +24999,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>15.58879094515819</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25044,10 +25044,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>114.7662707668344</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,10 +25056,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25202,25 +25202,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>348.5473453077446</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>115.7915986513122</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,25 +25394,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>287.0492336280195</v>
+        <v>218.5474650704376</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,31 +25467,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>35.40330257090875</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.25440111315061</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,19 +25518,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,7 +25628,7 @@
         <v>146.2678482032095</v>
       </c>
       <c r="C41" t="n">
-        <v>316.8534618868954</v>
+        <v>128.8068983107365</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>161.4518536386624</v>
       </c>
       <c r="Y41" t="n">
         <v>149.7719451957825</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,19 +25716,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>36.38075115984049</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.10642284427833</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25764,7 +25764,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>15.22898970064855</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,10 +25840,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E44" t="n">
-        <v>347.0648912442726</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,10 +25922,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>292.8867796421457</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>216.8295043329304</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>170.8172169493152</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>169.854427820673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>136.4564102853049</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26065,10 +26065,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R46" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397931</v>
+        <v>355290.5609397934</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397933</v>
+        <v>355290.5609397932</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397933</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004299</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.783772988</v>
+        <v>495368.7837729881</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397934</v>
+        <v>355290.5609397932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>71053.6796537592</v>
+      </c>
+      <c r="C2" t="n">
+        <v>71053.6796537592</v>
+      </c>
+      <c r="D2" t="n">
         <v>71053.67965375919</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>71053.67965375919</v>
       </c>
-      <c r="D2" t="n">
-        <v>71053.67965375916</v>
-      </c>
-      <c r="E2" t="n">
-        <v>71053.67965375917</v>
-      </c>
       <c r="F2" t="n">
-        <v>71053.67965375917</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071927</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="L2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879939</v>
-      </c>
       <c r="N2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>99050.3760090772</v>
+        <v>99050.37600907715</v>
       </c>
       <c r="P2" t="n">
         <v>71053.67965375919</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="C4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="D4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="E4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="F4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="G4" t="n">
-        <v>11735.85292711539</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16411.88104199264</v>
+        <v>16801.53650439377</v>
       </c>
       <c r="P4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10134.1315340509</v>
+        <v>9856.058660301918</v>
       </c>
       <c r="C6" t="n">
-        <v>23399.59913313381</v>
+        <v>23121.52625938483</v>
       </c>
       <c r="D6" t="n">
-        <v>23399.59913313378</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="E6" t="n">
-        <v>57027.19913313379</v>
+        <v>56749.12625938482</v>
       </c>
       <c r="F6" t="n">
-        <v>57027.19913313379</v>
+        <v>56749.12625938482</v>
       </c>
       <c r="G6" t="n">
-        <v>56066.09465347198</v>
+        <v>55785.31907576995</v>
       </c>
       <c r="H6" t="n">
-        <v>15399.70838927738</v>
+        <v>15007.47814373182</v>
       </c>
       <c r="I6" t="n">
-        <v>68520.27535960243</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="J6" t="n">
-        <v>58163.39145579861</v>
+        <v>57771.16121025306</v>
       </c>
       <c r="K6" t="n">
-        <v>68520.27535960241</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="L6" t="n">
-        <v>68520.27535960243</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="M6" t="n">
-        <v>68520.27535960244</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="N6" t="n">
-        <v>68520.27535960244</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="O6" t="n">
-        <v>68261.36256470007</v>
+        <v>67871.70710229891</v>
       </c>
       <c r="P6" t="n">
-        <v>57027.19913313381</v>
+        <v>56749.12625938482</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="L2" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="L2" t="n">
-        <v>39.58387696184059</v>
-      </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="O3" t="n">
         <v>39.58387696184059</v>
@@ -34796,7 +34796,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="P12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M12" t="n">
+      <c r="Q12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N12" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36452,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,10 +36923,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>189.9244486576549</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,19 +37862,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>100.2880138681011</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>156.4456740394513</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L44" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N45" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="O45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
         <v>39.58387696184059</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376293.3082743286</v>
+        <v>373007.8661325563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179438</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891437</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>12.92549025883184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G6" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,31 +1095,31 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1303,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1412,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T11" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1512,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1567,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1625,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.92549025883184</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1689,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.87161743162455</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1986,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>97.40909296371208</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="X23" t="n">
         <v>202.2946864288972</v>
       </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>44.08555596030919</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>27.96547247954966</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,16 +2450,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>16.53524424398009</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>131.1096832932227</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>190.8385894655533</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3029,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>241.0142888776591</v>
@@ -3044,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>131.8562746194806</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>118.5628686044507</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>143.307037107077</v>
       </c>
       <c r="W36" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.14223173826446</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>165.4878196644349</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>208.2792470398066</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>144.6963243757077</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>36.12902139221814</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4019,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>39.58387696184059</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.58387696184059</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>34.86547882798917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G3" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H3" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.1178524655551</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R4" t="n">
-        <v>83.13413836268582</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S4" t="n">
-        <v>43.15042425981653</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D5" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E5" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F5" t="n">
-        <v>28.29275017052741</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G5" t="n">
-        <v>28.29275017052741</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>28.29275017052741</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F6" t="n">
-        <v>118.3517937444931</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C7" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D7" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E7" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S7" t="n">
-        <v>90.46354404567346</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T7" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U7" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V7" t="n">
-        <v>50.47982994280417</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W7" t="n">
-        <v>10.49611583993489</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X7" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>119.1474696551402</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="H10" t="n">
-        <v>93.21247408113457</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="I10" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J10" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>68.2764642733967</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T11" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U11" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V11" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N12" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T12" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U12" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V12" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W12" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.2764642733967</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C14" t="n">
-        <v>28.29275017052741</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D14" t="n">
-        <v>28.29275017052741</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E14" t="n">
-        <v>28.29275017052741</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F14" t="n">
-        <v>28.29275017052741</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G14" t="n">
-        <v>28.29275017052741</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H14" t="n">
-        <v>28.29275017052741</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="I14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T14" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U14" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V14" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W14" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X14" t="n">
-        <v>108.260178376266</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.260178376266</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O15" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U15" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>137.2644294849704</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>92.68647758675968</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>92.68647758675968</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V17" t="n">
-        <v>92.68647758675968</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W17" t="n">
-        <v>92.68647758675968</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>92.68647758675968</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>137.2644294849704</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="C18" t="n">
-        <v>137.2644294849704</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D18" t="n">
-        <v>137.2644294849704</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E18" t="n">
-        <v>137.2644294849704</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>137.2644294849704</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>92.68647758675968</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10852568854899</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>134.6031257566472</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>176.5286895169144</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5286895169144</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>137.2644294849704</v>
+        <v>865.6641323149674</v>
       </c>
       <c r="Y18" t="n">
-        <v>137.2644294849704</v>
+        <v>657.9038335500135</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55.04605772994853</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="C21" t="n">
-        <v>55.04605772994853</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="D21" t="n">
-        <v>55.04605772994853</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="E21" t="n">
-        <v>55.04605772994853</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="F21" t="n">
-        <v>55.04605772994853</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>55.04605772994853</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>55.04605772994853</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y21" t="n">
-        <v>55.04605772994853</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>353.3011080883284</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C24" t="n">
-        <v>353.3011080883284</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D24" t="n">
-        <v>353.3011080883284</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E24" t="n">
-        <v>194.0636530828729</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>47.52909510975783</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>47.52909510975783</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>353.3011080883284</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X24" t="n">
-        <v>353.3011080883284</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y24" t="n">
-        <v>353.3011080883284</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.98341002332393</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>243.8349102288568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>35.98341002332393</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.98341002332393</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6418,7 +6420,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
@@ -6497,16 +6499,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>227.7955745279523</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>227.7955745279523</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="31">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>152.4692992915062</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>152.4692992915062</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="V33" t="n">
-        <v>360.2295980564601</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W33" t="n">
-        <v>360.2295980564601</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X33" t="n">
-        <v>360.2295980564601</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y33" t="n">
-        <v>152.4692992915062</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="34">
@@ -6895,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7017,13 +7019,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>617.1159779329607</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="37">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>366.1018663125844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>366.1018663125844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>366.1018663125844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>366.1018663125844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>366.1018663125844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>366.1018663125844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
         <v>31.35113235729608</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1018663125844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y38" t="n">
-        <v>366.1018663125844</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7289,16 @@
         <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>327.2640844659515</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W39" t="n">
-        <v>83.81530782185143</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X39" t="n">
-        <v>83.81530782185143</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y39" t="n">
-        <v>83.81530782185143</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>735.4808960230977</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>229.8642697601892</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C42" t="n">
-        <v>55.41124047906223</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="D42" t="n">
-        <v>55.41124047906223</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="E42" t="n">
-        <v>55.41124047906223</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F42" t="n">
-        <v>55.41124047906223</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>55.41124047906223</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>608.3392789286765</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>763.2204962277333</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>763.2204962277333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>844.6944443939699</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>844.6944443939699</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>844.6944443939699</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>844.6944443939699</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>844.6944443939699</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>605.8399055452112</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>605.8399055452112</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>398.0796067802573</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>120.7308247336138</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>158.3355078473624</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>158.3355078473624</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1178524655551</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W44" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M45" t="n">
-        <v>3.166710156947247</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>123.1178524655551</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>123.1178524655551</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>83.13413836268582</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>53.22875997826529</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -9969,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>419.3375122542458</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7873861227846</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22598,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>188.2303707361422</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22638,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I3" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.18449089043011</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>379.9537176646994</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>197.5503993115741</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G6" t="n">
-        <v>103.2246296614793</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22945,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22963,7 +22965,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,31 +22983,31 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.37159280401211</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>218.4535437628794</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23300,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T11" t="n">
-        <v>198.221069950687</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23400,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23455,19 +23457,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>197.5503993115741</v>
+        <v>181.5949713533262</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23577,13 +23579,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23592,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>170.1484521546208</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>340.0065027013012</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23814,25 +23816,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23874,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>108.3638922397654</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>224.9192049413549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>101.9362516896722</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0.189425455424967</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,10 +24101,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4476276895581</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>84.2699717569468</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,16 +24338,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>156.1732547443357</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24658,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
@@ -24737,10 +24739,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>101.6909038562026</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>60.85639369536631</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24917,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>140.9160811946027</v>
@@ -24932,13 +24934,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>268.4601236753789</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>15.58879094515819</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>81.60186009037089</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25242,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>89.49355004234823</v>
       </c>
       <c r="W36" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>164.4793060611234</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25406,10 +25408,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>218.5474650704376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>26.25440111315061</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25527,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>67.31276748499033</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>128.8068983107365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>161.4518536386624</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>12.94875607969328</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>76.10642284427833</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>309.6570917555724</v>
+        <v>246.9027416247241</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>126.9493066880268</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26001,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>216.8295043329304</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>136.4564102853049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26065,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397934</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397932</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004298</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.7837729881</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397932</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.80321071921</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071927</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>99050.37600907715</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="P2" t="n">
-        <v>71053.67965375919</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16801.53650439377</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="P4" t="n">
-        <v>11897.85367509446</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9856.058660301918</v>
+        <v>8614.63262100047</v>
       </c>
       <c r="C6" t="n">
-        <v>23121.52625938483</v>
+        <v>23404.33862524468</v>
       </c>
       <c r="D6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524474</v>
       </c>
       <c r="E6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524472</v>
       </c>
       <c r="F6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524475</v>
       </c>
       <c r="G6" t="n">
-        <v>55785.31907576995</v>
+        <v>14165.61021358453</v>
       </c>
       <c r="H6" t="n">
-        <v>15007.47814373182</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405688</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.16121025306</v>
+        <v>56581.12700406594</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405689</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="L6" t="n">
         <v>68128.04511405686</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405686</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="N6" t="n">
         <v>68128.04511405685</v>
       </c>
       <c r="O6" t="n">
-        <v>67871.70710229891</v>
+        <v>20748.16689659311</v>
       </c>
       <c r="P6" t="n">
-        <v>56749.12625938482</v>
+        <v>68128.04511405688</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>189.9244486576549</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>156.4456740394513</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>37.98452839772582</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325563</v>
+        <v>267281.5962860413</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514374</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006069</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230948</v>
+        <v>5765385.898601451</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>179.3283639330482</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
     </row>
     <row r="6">
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>38.12502610536668</v>
+        <v>132.1851246900962</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>78.94281254009712</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>44.13217237922859</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>44.13217237922859</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>133.6225573565264</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>97.40909296371208</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,58 +2098,58 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.20720739599011</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>82.69355372315663</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44.08555596030919</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2475,70 +2475,70 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,55 +2803,55 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>190.8385894655533</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3034,25 +3034,25 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>118.5628686044507</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,58 +3186,58 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,62 +3268,62 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>143.307037107077</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.2545356023572</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>165.4878196644349</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,58 +3663,58 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>144.6963243757077</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4033,16 +4033,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>92.68647758675968</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.79483382228227</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C3" t="n">
-        <v>42.79483382228227</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D3" t="n">
-        <v>42.79483382228227</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E3" t="n">
-        <v>42.79483382228227</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>42.79483382228227</v>
+        <v>681.7478645149884</v>
       </c>
       <c r="Y3" t="n">
-        <v>42.79483382228227</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>152.8014710800069</v>
       </c>
       <c r="F6" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>47.22142444577459</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V8" t="n">
-        <v>137.2644294849704</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W8" t="n">
-        <v>92.68647758675968</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X8" t="n">
-        <v>48.10852568854899</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>137.2644294849704</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C9" t="n">
-        <v>137.2644294849704</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D9" t="n">
-        <v>137.2644294849704</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E9" t="n">
-        <v>137.2644294849704</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>137.2644294849704</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>137.2644294849704</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X9" t="n">
-        <v>137.2644294849704</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y9" t="n">
-        <v>137.2644294849704</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>92.68647758675968</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>92.68647758675968</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>48.10852568854899</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>48.10852568854899</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>48.10852568854899</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8591222504766</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8591222504766</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>121.8591222504766</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>90.91227510121089</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>92.68647758675968</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>48.10852568854899</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>453.4809361619635</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U17" t="n">
-        <v>284.1276524520142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V17" t="n">
-        <v>40.6788758079141</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>657.9038335500135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>657.9038335500135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>865.6641323149674</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>657.9038335500135</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5700,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6022,19 +6022,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V23" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W23" t="n">
         <v>710.516763498309</v>
       </c>
-      <c r="V23" t="n">
+      <c r="X23" t="n">
         <v>467.067986854209</v>
       </c>
-      <c r="W23" t="n">
-        <v>223.6192102101089</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6314,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6350,7 +6350,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6420,7 +6420,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6557,37 +6557,37 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>670.1213740781145</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>670.1213740781145</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C32" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D32" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y32" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>569.7098081763618</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>569.7098081763618</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>569.7098081763618</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>569.7098081763618</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6885,25 +6885,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>617.1159779329607</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>373.6672012888606</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>165.8157010833278</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7074,10 +7074,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V38" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W38" t="n">
-        <v>738.7078125165641</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X38" t="n">
-        <v>495.259035872464</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y38" t="n">
-        <v>251.810259228364</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7289,16 +7289,16 @@
         <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>395.2567788952347</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>395.2567788952347</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X39" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X41" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>122.6530896684844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V44" t="n">
-        <v>122.6530896684844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W44" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,16 +7733,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X45" t="n">
-        <v>277.6047704292607</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.84447166430675</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>184.9452987477446</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11381,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22631,19 +22631,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22691,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>26.44462127042925</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>142.2954822415181</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>283.8997115633647</v>
       </c>
     </row>
     <row r="6">
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>106.9441862880172</v>
+        <v>12.88408770328766</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22965,7 +22965,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22986,16 +22986,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.37159280401211</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23074,22 +23074,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>68.50225302454163</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23159,10 +23159,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>212.8233657292951</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23308,19 +23308,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>283.6200860909063</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W11" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>161.6408128242489</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>144.630597575249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5949713533262</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23624,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>92.31882472444838</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23791,10 +23791,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>340.0065027013012</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23816,25 +23816,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>108.3638922397654</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23940,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24022,7 +24022,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0.189425455424967</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24101,13 +24101,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24262,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>122.4476276895581</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>107.544508198328</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24660,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>119.4884220823225</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>114.7662707668344</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>60.85639369536631</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24922,25 +24922,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>134.469915878258</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>81.60186009037089</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,10 +25207,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25286,13 +25286,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>89.49355004234823</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>164.4793060611234</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25411,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25529,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>67.31276748499033</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>12.94875607969328</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>270.4049153562469</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>246.9027416247241</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>117.2220797075721</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25955,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>109.6619469198454</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.80321071921</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.80321071924</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.80321071927</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26456,7 +26456,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16914.68964098083</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.63262100047</v>
+        <v>-58486.99703753129</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524468</v>
+        <v>22282.43449401644</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524474</v>
+        <v>22282.43449401637</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524472</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524475</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358453</v>
+        <v>55910.03449401637</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406594</v>
+        <v>-7149.908105089848</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.16689659311</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401637</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330018</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330018</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>42.34905430330019</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267281.5962860413</v>
+        <v>361671.1651892322</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514374</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006069</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5765385.898601451</v>
+        <v>5117581.913230947</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>202.2946864288972</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>179.3283639330482</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>132.1851246900962</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>78.94281254009712</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>112.3289263072337</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>133.6225573565264</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>204.7452777895381</v>
       </c>
       <c r="X18" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,17 +2086,17 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>82.69355372315663</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,20 +2323,20 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>78.68895450699588</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>222.3082294474576</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,14 +2557,14 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -2572,52 +2572,52 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>208.2638363878124</v>
-      </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>131.1725694225823</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>56.91690033700343</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,55 +2964,55 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>18.5893627870227</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>19.07971306608462</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.72793538656374</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>55.66595177720879</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,28 +3784,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>89.66547645067541</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>88.73121029855974</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>473.9875657500345</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>473.9875657500345</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>325.0531560887832</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>165.8157010833278</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>681.7478645149884</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>473.9875657500345</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U5" t="n">
-        <v>366.1018663125844</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V5" t="n">
-        <v>366.1018663125844</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W5" t="n">
-        <v>366.1018663125844</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X5" t="n">
-        <v>122.6530896684844</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312.0389260854624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>312.0389260854624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>312.0389260854624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>152.8014710800069</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>555.4877027295624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W6" t="n">
-        <v>312.0389260854624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X6" t="n">
-        <v>312.0389260854624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y6" t="n">
-        <v>312.0389260854624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>495.259035872464</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>495.259035872464</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>495.259035872464</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>495.259035872464</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F8" t="n">
-        <v>251.810259228364</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U8" t="n">
-        <v>738.7078125165641</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V8" t="n">
-        <v>738.7078125165641</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W8" t="n">
-        <v>738.7078125165641</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>738.7078125165641</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>495.259035872464</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>304.5465265007123</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>304.5465265007123</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W9" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X9" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y9" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T14" t="n">
-        <v>376.1934816808115</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>453.4809361619635</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C15" t="n">
-        <v>453.4809361619635</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D15" t="n">
-        <v>304.5465265007123</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E15" t="n">
-        <v>304.5465265007123</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>453.4809361619635</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>453.4809361619635</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W15" t="n">
-        <v>453.4809361619635</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X15" t="n">
-        <v>453.4809361619635</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y15" t="n">
-        <v>453.4809361619635</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,19 +5621,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>634.6640077999109</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V18" t="n">
-        <v>399.5118995681682</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W18" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
         <v>19.28114311021272</v>
@@ -5706,10 +5706,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5734,13 +5734,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5779,19 +5779,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
         <v>262.7299197543128</v>
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,16 +5855,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
         <v>678.3417187247995</v>
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>884.5733630793272</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>711.1560185299961</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6344,10 +6344,10 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6405,22 +6405,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V29" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W29" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>906.5653369884105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>906.5653369884105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>569.6760821917653</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>569.6760821917653</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>326.2273055476653</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>326.2273055476653</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>326.2273055476653</v>
       </c>
     </row>
     <row r="34">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
@@ -6928,7 +6928,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>177.2844059680867</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="37">
@@ -7080,10 +7080,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>944.1299480494607</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>231.8830517671884</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X38" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="39">
@@ -7259,13 +7259,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
         <v>964.0571555106362</v>
@@ -7280,22 +7280,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V39" t="n">
-        <v>327.2640844659515</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W39" t="n">
-        <v>83.81530782185143</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7362,7 +7362,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W41" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7493,10 +7493,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
         <v>486.8488635328713</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>353.3011080883284</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>109.8523314442283</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>132.7447050367114</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.7447050367114</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55.04605772994853</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C45" t="n">
-        <v>55.04605772994853</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>773.2601409134616</v>
       </c>
       <c r="U45" t="n">
-        <v>533.6469426057913</v>
+        <v>545.0365226498506</v>
       </c>
       <c r="V45" t="n">
-        <v>298.4948343740486</v>
+        <v>545.0365226498506</v>
       </c>
       <c r="W45" t="n">
-        <v>55.04605772994853</v>
+        <v>545.0365226498506</v>
       </c>
       <c r="X45" t="n">
-        <v>55.04605772994853</v>
+        <v>337.1850224443177</v>
       </c>
       <c r="Y45" t="n">
-        <v>55.04605772994853</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>168.5314335381781</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>255.9771075721939</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9722,7 +9722,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9731,13 +9731,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,10 +10205,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,7 +10916,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,16 +22600,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>146.9462822885158</v>
+        <v>310.3693512857885</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22631,13 +22631,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22688,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>26.44462127042925</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22752,22 +22752,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>325.8021234036032</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>283.8997115633647</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22871,10 +22871,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>12.88408770328766</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22986,19 +22986,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.37159280401211</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23105,16 +23105,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>68.50225302454163</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>176.5029409294872</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,13 +23235,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>336.3919735539278</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>175.8836868124217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23469,19 +23469,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,16 +23542,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>139.0167266006028</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23579,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23624,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>92.31882472444838</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8250225705301</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,7 +23749,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>328.2817459595876</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>46.94970537138147</v>
       </c>
       <c r="X18" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23946,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24019,22 +24019,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>143.2478283578182</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>50.10013888409014</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24262,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>21.46887964564725</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24344,10 +24344,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>10.49235770196771</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24645,7 +24645,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24660,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>119.4884220823225</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>299.3870928771938</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>41.5359295657334</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>114.7662707668344</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>134.469915878258</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25046,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.3520192939521</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25238,16 +25238,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>125.9894993272993</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>189.2921341996816</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25520,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>170.275430303766</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>141.8841621389552</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25602,10 +25602,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>312.9645104224461</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,28 +25672,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25757,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>116.1075087528021</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>270.4049153562469</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>329.2548215453339</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>109.6619469198454</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>111.4335183962619</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498601.107484141</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>71731.80321071918</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879942</v>
+        <v>71731.80321071918</v>
       </c>
       <c r="D2" t="n">
+        <v>71731.8032107192</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71731.80321071923</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71731.80321071924</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879934</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098083</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>16914.68964098083</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58486.99703753129</v>
+        <v>7159.793223095719</v>
       </c>
       <c r="C6" t="n">
-        <v>22282.43449401644</v>
+        <v>21949.49922733995</v>
       </c>
       <c r="D6" t="n">
-        <v>22282.43449401637</v>
+        <v>21949.49922733997</v>
       </c>
       <c r="E6" t="n">
-        <v>55910.03449401641</v>
+        <v>55577.09922733999</v>
       </c>
       <c r="F6" t="n">
-        <v>55910.03449401644</v>
+        <v>55577.09922734</v>
       </c>
       <c r="G6" t="n">
-        <v>55910.03449401637</v>
+        <v>12943.8091515805</v>
       </c>
       <c r="H6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205288</v>
       </c>
       <c r="I6" t="n">
-        <v>55910.03449401643</v>
+        <v>66906.24405205282</v>
       </c>
       <c r="J6" t="n">
-        <v>-7149.908105089848</v>
+        <v>55359.32594206193</v>
       </c>
       <c r="K6" t="n">
-        <v>55910.03449401641</v>
+        <v>66906.24405205282</v>
       </c>
       <c r="L6" t="n">
-        <v>55910.0344940164</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="M6" t="n">
-        <v>55910.0344940164</v>
+        <v>66906.24405205279</v>
       </c>
       <c r="N6" t="n">
-        <v>55910.03449401641</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="O6" t="n">
-        <v>55910.03449401642</v>
+        <v>19526.36583458904</v>
       </c>
       <c r="P6" t="n">
-        <v>55910.03449401637</v>
+        <v>66906.24405205283</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>34.55702612384782</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>226.4350751681936</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O15" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36451,13 +36451,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,10 +36925,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,7 +37636,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
